--- a/results/mp/logistic/corona/confidence/84/masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,111 +40,114 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
     <t>cancelled</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -157,7 +160,7 @@
     <t>of</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>on</t>
   </si>
   <si>
     <t>co</t>
@@ -169,196 +172,199 @@
     <t>a</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>friend</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>great</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>growth</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>share</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>check</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
-    <t>for</t>
+    <t>and</t>
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>corona</t>
@@ -727,10 +733,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,13 +794,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -806,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -838,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.815068493150685</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -856,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L4">
         <v>54</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="L4">
-        <v>43</v>
-      </c>
       <c r="M4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,13 +894,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -959,16 +965,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -988,13 +994,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1006,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1030,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1038,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1059,16 +1065,16 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1080,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -1106,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1130,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1144,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1156,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1188,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7241379310344828</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1206,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.793733681462141</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1230,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1238,13 +1244,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.72</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1259,16 +1265,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K12">
-        <v>0.8302872062663186</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1280,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1309,16 +1315,16 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1330,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1341,10 +1347,10 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1356,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.8181818181818182</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1380,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1388,13 +1394,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.64</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1406,31 +1412,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L15">
+        <v>28</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15">
-        <v>0.8170731707317073</v>
-      </c>
-      <c r="L15">
-        <v>67</v>
-      </c>
-      <c r="M15">
-        <v>67</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1438,38 +1444,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6086956521739131</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>14</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16">
-        <v>0.8085106382978723</v>
-      </c>
-      <c r="L16">
-        <v>38</v>
-      </c>
-      <c r="M16">
-        <v>38</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1488,13 +1494,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5769230769230769</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1506,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>0.7887323943661971</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1530,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1538,13 +1544,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5767195767195767</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C18">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1556,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K18">
-        <v>0.7875</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L18">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1580,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1588,13 +1594,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.576271186440678</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1606,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7625</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1630,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1638,13 +1644,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5098039215686274</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1656,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20">
-        <v>0.7735849056603774</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1680,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1688,13 +1694,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="C21">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1706,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K21">
-        <v>0.7734375</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1730,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1738,13 +1744,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1756,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22">
-        <v>0.7272727272727273</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1780,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1788,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4594594594594595</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1809,16 +1815,16 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K23">
-        <v>0.725</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1830,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1838,13 +1844,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.45</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1856,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K24">
-        <v>0.717948717948718</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1880,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1888,13 +1894,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4496644295302014</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C25">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1906,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1930,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1938,13 +1944,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4193548387096774</v>
+        <v>0.4563758389261745</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1956,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26">
-        <v>0.7083333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1980,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1988,13 +1994,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4166666666666667</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2006,19 +2012,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K27">
-        <v>0.7037037037037037</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2030,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2038,13 +2044,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3866666666666667</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2056,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2080,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2088,13 +2094,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3846153846153846</v>
+        <v>0.40625</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2106,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K29">
-        <v>0.6744186046511628</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2130,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2138,13 +2144,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3818181818181818</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2156,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2180,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2188,13 +2194,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3805555555555555</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C31">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2206,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K31">
-        <v>0.6323529411764706</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L31">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2230,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2259,16 +2265,16 @@
         <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K32">
-        <v>0.6285714285714286</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2280,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2288,13 +2294,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3454545454545455</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2306,19 +2312,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2330,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2338,7 +2344,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3214285714285715</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C34">
         <v>18</v>
@@ -2356,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>37</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L34">
+        <v>56</v>
+      </c>
+      <c r="M34">
+        <v>56</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>38</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K34">
-        <v>0.6063829787234043</v>
-      </c>
-      <c r="L34">
-        <v>57</v>
-      </c>
-      <c r="M34">
-        <v>57</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2388,13 +2394,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2444444444444444</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2406,31 +2412,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K35">
-        <v>0.6</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2438,13 +2444,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2337662337662338</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2456,19 +2462,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2480,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2488,13 +2494,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2261904761904762</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C37">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2506,19 +2512,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K37">
-        <v>0.5898305084745763</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L37">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2530,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2538,13 +2544,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.175</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2556,19 +2562,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K38">
-        <v>0.5833333333333334</v>
+        <v>0.575</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2580,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2588,13 +2594,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1528150134048257</v>
+        <v>0.1875</v>
       </c>
       <c r="C39">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2606,19 +2612,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>316</v>
+        <v>65</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K39">
-        <v>0.5757575757575758</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2630,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2638,13 +2644,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06333333333333334</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2656,19 +2662,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2680,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2688,37 +2694,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01391231028667791</v>
+        <v>0.04333333333333333</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2339</v>
+        <v>287</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K41">
-        <v>0.5690376569037657</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2730,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2738,37 +2744,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01205857019810508</v>
+        <v>0.0139005897219882</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1147</v>
+        <v>2341</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2780,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2788,28 +2794,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01063144329896907</v>
+        <v>0.01142355008787346</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="F43">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3071</v>
+        <v>1125</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K43">
         <v>0.5428571428571428</v>
@@ -2838,28 +2844,28 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01029480580252691</v>
+        <v>0.009351821992905514</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="F44">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2115</v>
+        <v>3072</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K44">
         <v>0.5357142857142857</v>
@@ -2888,28 +2894,28 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.006516072980017376</v>
+        <v>0.008882655446470314</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="F45">
-        <v>0.6799999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2287</v>
+        <v>2120</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K45">
         <v>0.5280898876404494</v>
@@ -2938,37 +2944,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00602878257487359</v>
+        <v>0.007388092133854845</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="F46">
-        <v>0.5700000000000001</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>5111</v>
+        <v>2284</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K46">
-        <v>0.4901960784313725</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2980,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2988,37 +2994,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005433688871000202</v>
+        <v>0.005754212905877518</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E47">
+        <v>0.46</v>
+      </c>
+      <c r="F47">
+        <v>0.54</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2419</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47">
         <v>0.5</v>
       </c>
-      <c r="F47">
-        <v>0.5</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>4942</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K47">
-        <v>0.4642857142857143</v>
-      </c>
       <c r="L47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3030,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3038,37 +3044,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004879182156133829</v>
+        <v>0.005630404182585964</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E48">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="F48">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>4283</v>
+        <v>4945</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K48">
-        <v>0.3809523809523809</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3083,18 +3089,42 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="10:17">
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.005446411204045905</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <v>0.46</v>
+      </c>
+      <c r="F49">
+        <v>0.54</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>5113</v>
+      </c>
       <c r="J49" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K49">
-        <v>0.3777777777777778</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3106,67 +3136,91 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.00463821892393321</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>0.44</v>
+      </c>
+      <c r="F50">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>4292</v>
+      </c>
       <c r="J50" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K50">
-        <v>0.3472222222222222</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="J51" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K51">
-        <v>0.3448275862068966</v>
+        <v>0.3125</v>
       </c>
       <c r="L51">
         <v>20</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="J52" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K52">
-        <v>0.34375</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L52">
         <v>22</v>
@@ -3184,21 +3238,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="J53" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K53">
-        <v>0.3076923076923077</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3210,12 +3264,12 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="J54" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K54">
         <v>0.2280701754385965</v>
@@ -3239,12 +3293,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="10:17">
+    <row r="55" spans="1:17">
       <c r="J55" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K55">
-        <v>0.1129032258064516</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L55">
         <v>14</v>
@@ -3262,21 +3316,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="K56">
-        <v>0.07027027027027027</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3288,21 +3342,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K57">
-        <v>0.02587646076794658</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="L57">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>0.9399999999999999</v>
@@ -3314,241 +3368,241 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K58">
-        <v>0.01095461658841941</v>
+        <v>0.02671118530884808</v>
       </c>
       <c r="L58">
+        <v>32</v>
+      </c>
+      <c r="M58">
+        <v>34</v>
+      </c>
+      <c r="N58">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O58">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59">
+        <v>0.01198738170347003</v>
+      </c>
+      <c r="L59">
+        <v>19</v>
+      </c>
+      <c r="M59">
+        <v>28</v>
+      </c>
+      <c r="N59">
+        <v>0.68</v>
+      </c>
+      <c r="O59">
+        <v>0.32</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K60">
+        <v>0.01017214397496088</v>
+      </c>
+      <c r="L60">
+        <v>13</v>
+      </c>
+      <c r="M60">
+        <v>24</v>
+      </c>
+      <c r="N60">
+        <v>0.54</v>
+      </c>
+      <c r="O60">
+        <v>0.46</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K61">
+        <v>0.0101427498121713</v>
+      </c>
+      <c r="L61">
+        <v>27</v>
+      </c>
+      <c r="M61">
+        <v>38</v>
+      </c>
+      <c r="N61">
+        <v>0.71</v>
+      </c>
+      <c r="O61">
+        <v>0.29</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K62">
+        <v>0.005857740585774059</v>
+      </c>
+      <c r="L62">
         <v>14</v>
       </c>
-      <c r="M58">
-        <v>25</v>
-      </c>
-      <c r="N58">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O58">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K59">
-        <v>0.01072555205047319</v>
-      </c>
-      <c r="L59">
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>0.78</v>
+      </c>
+      <c r="O62">
+        <v>0.22</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K63">
+        <v>0.005329153605015674</v>
+      </c>
+      <c r="L63">
         <v>17</v>
       </c>
-      <c r="M59">
-        <v>26</v>
-      </c>
-      <c r="N59">
-        <v>0.65</v>
-      </c>
-      <c r="O59">
-        <v>0.35</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K60">
-        <v>0.009201171058134672</v>
-      </c>
-      <c r="L60">
-        <v>22</v>
-      </c>
-      <c r="M60">
-        <v>25</v>
-      </c>
-      <c r="N60">
-        <v>0.88</v>
-      </c>
-      <c r="O60">
-        <v>0.12</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K61">
-        <v>0.009019165727170236</v>
-      </c>
-      <c r="L61">
-        <v>24</v>
-      </c>
-      <c r="M61">
-        <v>36</v>
-      </c>
-      <c r="N61">
-        <v>0.67</v>
-      </c>
-      <c r="O61">
-        <v>0.33</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K62">
-        <v>0.006165228113440197</v>
-      </c>
-      <c r="L62">
-        <v>15</v>
-      </c>
-      <c r="M62">
-        <v>27</v>
-      </c>
-      <c r="N62">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O62">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K63">
-        <v>0.005954246317768724</v>
-      </c>
-      <c r="L63">
-        <v>19</v>
-      </c>
       <c r="M63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N63">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="O63">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K64">
-        <v>0.005572324123519851</v>
+        <v>0.004671987541366556</v>
       </c>
       <c r="L64">
         <v>24</v>
       </c>
       <c r="M64">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N64">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="O64">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>4283</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>0.005433688871000202</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="L65">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N65">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="O65">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>4942</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K66">
-        <v>0.004479937670432412</v>
+        <v>0.003714020427112349</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N66">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="O66">
-        <v>0.5700000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>5111</v>
+        <v>4292</v>
       </c>
     </row>
   </sheetData>
